--- a/helm-charts/dev-values/infra-values/dataset/infra_sheet.xlsx
+++ b/helm-charts/dev-values/infra-values/dataset/infra_sheet.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989C3AEA-2D0C-40AE-8F70-2A665CB798FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="global"/>
-    <sheet r:id="rId2" sheetId="2" name="bucket"/>
-    <sheet r:id="rId3" sheetId="3" name="pull_subscription"/>
+    <sheet name="global" sheetId="1" r:id="rId1"/>
+    <sheet name="bucket" sheetId="2" r:id="rId2"/>
+    <sheet name="pull_subscription" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="72">
   <si>
     <t>object_id</t>
   </si>
@@ -66,10 +72,31 @@
     <t>1800s</t>
   </si>
   <si>
+    <t>pull-sub-9</t>
+  </si>
+  <si>
+    <t>topic-9</t>
+  </si>
+  <si>
+    <t>2400s</t>
+  </si>
+  <si>
+    <t>pull-sub-10</t>
+  </si>
+  <si>
+    <t>topic-10</t>
+  </si>
+  <si>
+    <t>3600s</t>
+  </si>
+  <si>
+    <t>pull-sub-12</t>
+  </si>
+  <si>
     <t>bucket_name</t>
   </si>
   <si>
-    <t xml:space="preserve">storage_class </t>
+    <t>storage_class</t>
   </si>
   <si>
     <t>force_destroy</t>
@@ -141,28 +168,21 @@
     <t>false</t>
   </si>
   <si>
-    <t>not-applicable</t>
+    <t>{
+      environment = "dev"
+      team        = "platform"
+    }</t>
   </si>
   <si>
     <t>project-dev-bucket-3</t>
   </si>
   <si>
-    <t>{
-      project = "infra"
-    }</t>
-  </si>
-  <si>
     <t>project-dev-bucket-4</t>
   </si>
   <si>
     <t>ARCHIVE</t>
   </si>
   <si>
-    <t>{
-      environment = "archive"
-    }</t>
-  </si>
-  <si>
     <t>project-dev-bucket-5</t>
   </si>
   <si>
@@ -172,29 +192,16 @@
     <t>project-dev-bucket-6</t>
   </si>
   <si>
-    <t>{
-      managed = "yes"
-    }</t>
-  </si>
-  <si>
     <t>project-dev-bucket-7</t>
   </si>
   <si>
-    <t>https://myapp.com</t>
-  </si>
-  <si>
-    <t>PUT</t>
-  </si>
-  <si>
-    <t>Authorization</t>
-  </si>
-  <si>
     <t>project-dev-bucket-8</t>
   </si>
   <si>
-    <t>{
-      owner = "kranthi"
-    }</t>
+    <t>project-dev-bucket-9</t>
+  </si>
+  <si>
+    <t>project-dev-bucket-10</t>
   </si>
   <si>
     <t>PROJECT_ID</t>
@@ -221,22 +228,13 @@
     <t>push_subscriptions</t>
   </si>
   <si>
-    <t>nice-virtue-463917-m0</t>
+    <t>devops-ai-labs-1</t>
   </si>
   <si>
     <t>asia-south1</t>
   </si>
   <si>
     <t>asia-south1-a</t>
-  </si>
-  <si>
-    <t>demo-gke-cluster</t>
-  </si>
-  <si>
-    <t>demo-postgres-db</t>
-  </si>
-  <si>
-    <t>demo-jenkins-vm</t>
   </si>
   <si>
     <t>[
@@ -249,13 +247,15 @@
   "sub-1", "sub-2", "sub-3", "sub-4", "sub-5"
 ]</t>
   </si>
+  <si>
+    <t>not-applicable</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,15 +272,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -311,56 +304,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -371,10 +349,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -412,71 +390,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -504,7 +482,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -527,11 +505,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -540,13 +518,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -556,7 +534,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -565,7 +543,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -574,7 +552,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -582,10 +560,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -650,89 +628,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="35.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>57</v>
+      <c r="B1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="7" t="s">
         <v>63</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="B2" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="C2" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="D2" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
@@ -744,121 +720,118 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="29.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="28.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="95.25">
+    <row r="2" spans="1:15" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>31</v>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
       </c>
       <c r="G2" s="3">
         <v>3600</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>33</v>
+      <c r="H2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
       </c>
       <c r="J2" s="3">
         <v>30</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>36</v>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
       </c>
       <c r="N2" s="3">
         <v>3600</v>
@@ -867,333 +840,427 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>39</v>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>40</v>
+      <c r="J3" s="3">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="3">
+        <v>3600</v>
       </c>
       <c r="O3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="57">
+    <row r="4" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>39</v>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
       </c>
       <c r="G4" s="3">
         <v>86400</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="3">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="3">
-        <v>60</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>40</v>
+      <c r="M4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="3">
+        <v>3600</v>
       </c>
       <c r="O4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="69.75">
+    <row r="5" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>31</v>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="H5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>40</v>
+      <c r="J5" s="3">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="3">
+        <v>3600</v>
       </c>
       <c r="O5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>39</v>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>40</v>
+      <c r="J6" s="3">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="3">
+        <v>3600</v>
       </c>
       <c r="O6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="57">
+    <row r="7" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>31</v>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
       </c>
       <c r="G7" s="3">
         <v>7200</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>33</v>
+      <c r="H7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
       </c>
       <c r="J7" s="3">
-        <v>15</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="3">
+        <v>3600</v>
       </c>
       <c r="O7" s="3">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>39</v>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>53</v>
+      <c r="J8" s="3">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" t="s">
+        <v>43</v>
       </c>
       <c r="N8" s="3">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="O8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="57">
+    <row r="9" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>31</v>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
       </c>
       <c r="G9" s="3">
         <v>2592000</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="H9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>40</v>
+      <c r="J9" s="3">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="3">
+        <v>3600</v>
       </c>
       <c r="O9" s="3">
         <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="3">
+        <v>35</v>
+      </c>
+      <c r="K10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O10" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="3">
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O11" s="3">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1202,28 +1269,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="25.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1246,73 +1314,142 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="3">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="3">
         <v>15</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="3">
         <v>20</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3">
+        <v>120</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="3">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/helm-charts/dev-values/infra-values/dataset/infra_sheet.xlsx
+++ b/helm-charts/dev-values/infra-values/dataset/infra_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989C3AEA-2D0C-40AE-8F70-2A665CB798FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658B04B3-89EA-4732-9700-F7B25EDAB576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="global" sheetId="1" r:id="rId1"/>
@@ -228,9 +228,6 @@
     <t>push_subscriptions</t>
   </si>
   <si>
-    <t>devops-ai-labs-1</t>
-  </si>
-  <si>
     <t>asia-south1</t>
   </si>
   <si>
@@ -249,6 +246,9 @@
   </si>
   <si>
     <t>not-applicable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	nice-virtue-463917-m0</t>
   </si>
 </sst>
 </file>
@@ -634,15 +634,16 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.88671875" customWidth="1"/>
+    <col min="3" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
@@ -687,28 +688,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
         <v>66</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
@@ -726,8 +727,8 @@
   </sheetPr>
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
